--- a/Companies/IT Services & Consulting/HCL Technologies Ltd/Pruned_Excel/7_Mar21_Mar22.xlsx
+++ b/Companies/IT Services & Consulting/HCL Technologies Ltd/Pruned_Excel/7_Mar21_Mar22.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,15 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="51" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Mar '21</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '21</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '21</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '21</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Mar '22</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '21</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '21</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '21</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '21</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>9,249.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>9,556.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9,786.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10,662.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>10,634.00</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10,662.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9,786.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>9,556.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9,249.00</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>10662</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>9249</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>9977.4</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>9,249.00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>9,556.00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9,786.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10,662.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>10,634.00</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10,662.00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9,786.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>9,556.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9,249.00</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>10662</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>9249</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>9977.4</v>
       </c>
     </row>
     <row r="4"/>
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>59.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>33.00</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>59.00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>34.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>29.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>17.00</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>34.4</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-13.00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-7.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>9.00</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-7.00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-13.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0.4</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>3,378.00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3,440.00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3,751.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4,200.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>4,481.00</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>4,200.00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3,751.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3,440.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3,378.00</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>4481</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>3378</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>3850</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>784.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>660.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>644.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>728.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>583.00</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>728.00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>644.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>660.00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>784.00</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>784</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>583</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>679.8</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>2,834.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2,358.00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2,351.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2,510.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>2,285.00</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2,510.00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2,351.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2,358.00</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2,834.00</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>2834</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>2285</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>2467.6</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>2,229.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3,082.00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3,000.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3,172.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>3,243.00</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3,172.00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3,000.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3,082.00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2,229.00</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>3243</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>2229</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>2945.2</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>250.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>261.00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>177.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>187.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>255.00</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>187.00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>177.00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>261.00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>250.00</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>261</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>177</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>226</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>2,479.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3,343.00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3,177.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3,359.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>3,498.00</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>3,359.00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3,177.00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3,343.00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2,479.00</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>3498</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>2479</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>3171.2</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>26.00</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>28.00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>30.00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>25.8</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>2,459.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3,313.00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3,152.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3,331.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>3,472.00</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3,331.00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3,152.00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3,313.00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2,459.00</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>3472</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>2459</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>3145.4</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>2,459.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3,313.00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3,152.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3,331.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>3,472.00</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3,331.00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3,152.00</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3,313.00</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2,459.00</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>3472</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>2459</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>3145.4</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>2,003.00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>641.00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>590.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>694.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>469.00</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>694.00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>590.00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>641.00</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2,003.00</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>2003</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>469</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>879.4</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>456.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2,672.00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2,562.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2,637.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>3,003.00</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2,637.00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2,562.00</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2,672.00</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>456.00</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>3003</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>456</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>2266</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>456.00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2,672.00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2,562.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2,637.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>3,003.00</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2,637.00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2,562.00</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2,672.00</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>456.00</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>3003</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>456</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>2266</v>
       </c>
     </row>
     <row r="20">
@@ -1190,15 +1023,6 @@
         <is>
           <t>543.00</t>
         </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>543</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>543</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>543</v>
       </c>
     </row>
     <row r="21"/>
@@ -1217,37 +1041,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>11.09</t>
         </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>9.44</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>9.85</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>8.356</v>
       </c>
     </row>
     <row r="24">
@@ -1258,37 +1073,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>11.09</t>
         </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>9.44</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>9.85</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>8.356</v>
       </c>
     </row>
     <row r="25"/>
@@ -1307,37 +1113,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>11.09</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>9.44</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>9.84</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>8.354000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -1348,37 +1145,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>11.09</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>9.44</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>9.85</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>8.356</v>
       </c>
     </row>
     <row r="29"/>
